--- a/trunk/Report/Different versions of VM.xlsx
+++ b/trunk/Report/Different versions of VM.xlsx
@@ -717,6 +717,7 @@
         <c:axId val="57843712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10000"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
@@ -1140,7 +1141,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E21"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
